--- a/Данные скачивания таблиц/Число семей, получивших жилые п.xlsx
+++ b/Данные скачивания таблиц/Число семей, получивших жилые п.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>Городские округа:</t>
   </si>
@@ -58,25 +58,220 @@
     <t>Багратионовский</t>
   </si>
   <si>
+    <t>Балтийский</t>
+  </si>
+  <si>
+    <t>г. Калининград</t>
+  </si>
+  <si>
+    <t>Гвардейский</t>
+  </si>
+  <si>
+    <t>Гурьевский</t>
+  </si>
+  <si>
+    <t>Гусевский</t>
+  </si>
+  <si>
+    <t>Зеленоградский</t>
+  </si>
+  <si>
+    <t>Краснознаменский</t>
+  </si>
+  <si>
+    <t>Ладушкинский</t>
+  </si>
+  <si>
+    <t>Мамоновский</t>
+  </si>
+  <si>
+    <t>Неманский</t>
+  </si>
+  <si>
+    <t>Нестеровский</t>
+  </si>
+  <si>
+    <t>Озерский</t>
+  </si>
+  <si>
+    <t>Пионерский</t>
+  </si>
+  <si>
+    <t>Полесский</t>
+  </si>
+  <si>
+    <t>Правдинский</t>
+  </si>
+  <si>
+    <t>Светловский</t>
+  </si>
+  <si>
+    <t>Светлогорский</t>
+  </si>
+  <si>
+    <t>Славский</t>
+  </si>
+  <si>
+    <t>Советский</t>
+  </si>
+  <si>
+    <t>Черняховский</t>
+  </si>
+  <si>
+    <t>Янтарный</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>173</t>
   </si>
 </sst>
 </file>
@@ -434,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,34 +687,895 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>424</v>
+      </c>
+      <c r="C4">
+        <v>482</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>702</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
         <v>20</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
